--- a/2022/Samsung/February/01.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
+++ b/2022/Samsung/February/01.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Samsung\01.02.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Samsung\February\01.02.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2615,6 +2615,18 @@
     <xf numFmtId="1" fontId="33" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="34" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2757,18 +2769,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3228,33 +3228,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="319"/>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
+      <c r="A1" s="323"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="320"/>
-      <c r="B2" s="317" t="s">
+      <c r="A2" s="324"/>
+      <c r="B2" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="320"/>
-      <c r="B3" s="318" t="s">
+      <c r="A3" s="324"/>
+      <c r="B3" s="322" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="320"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="320"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="320"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3302,7 +3302,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="320"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="26" t="s">
         <v>46</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="320"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="320"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="320"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="26" t="s">
         <v>50</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="320"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="26" t="s">
         <v>51</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="320"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="26" t="s">
         <v>52</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="320"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="26" t="s">
         <v>53</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="320"/>
+      <c r="A14" s="324"/>
       <c r="B14" s="26" t="s">
         <v>54</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="320"/>
+      <c r="A15" s="324"/>
       <c r="B15" s="26" t="s">
         <v>55</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="320"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3486,7 +3486,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="320"/>
+      <c r="A17" s="324"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3499,7 +3499,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="320"/>
+      <c r="A18" s="324"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3512,7 +3512,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="320"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3525,7 +3525,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="320"/>
+      <c r="A20" s="324"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3538,7 +3538,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="320"/>
+      <c r="A21" s="324"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3551,7 +3551,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="320"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3564,7 +3564,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="320"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3577,7 +3577,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="320"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3590,7 +3590,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="320"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3603,7 +3603,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="320"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3616,7 +3616,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="320"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3629,7 +3629,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="320"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3642,7 +3642,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="320"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3655,7 +3655,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="320"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3668,7 +3668,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="320"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3681,7 +3681,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="320"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3694,7 +3694,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="320"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -3707,7 +3707,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="320"/>
+      <c r="A34" s="324"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -3720,7 +3720,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="320"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -3733,7 +3733,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="320"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -3746,7 +3746,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="320"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3759,7 +3759,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="320"/>
+      <c r="A38" s="324"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -3772,7 +3772,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="320"/>
+      <c r="A39" s="324"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -3785,7 +3785,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="320"/>
+      <c r="A40" s="324"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -3798,7 +3798,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="320"/>
+      <c r="A41" s="324"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -3811,7 +3811,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="320"/>
+      <c r="A42" s="324"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -3824,7 +3824,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="320"/>
+      <c r="A43" s="324"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -3837,7 +3837,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="320"/>
+      <c r="A44" s="324"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -3850,7 +3850,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="320"/>
+      <c r="A45" s="324"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -3863,7 +3863,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="320"/>
+      <c r="A46" s="324"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -3876,7 +3876,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="320"/>
+      <c r="A47" s="324"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -3889,7 +3889,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="320"/>
+      <c r="A48" s="324"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -3902,7 +3902,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="320"/>
+      <c r="A49" s="324"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -3915,7 +3915,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="320"/>
+      <c r="A50" s="324"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -3928,7 +3928,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="320"/>
+      <c r="A51" s="324"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -3941,7 +3941,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="320"/>
+      <c r="A52" s="324"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -3954,7 +3954,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="320"/>
+      <c r="A53" s="324"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -3967,7 +3967,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="320"/>
+      <c r="A54" s="324"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -3980,7 +3980,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="320"/>
+      <c r="A55" s="324"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -3992,7 +3992,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="320"/>
+      <c r="A56" s="324"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4004,7 +4004,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="320"/>
+      <c r="A57" s="324"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4016,7 +4016,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="320"/>
+      <c r="A58" s="324"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4028,7 +4028,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="320"/>
+      <c r="A59" s="324"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4040,7 +4040,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="320"/>
+      <c r="A60" s="324"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4052,7 +4052,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="320"/>
+      <c r="A61" s="324"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4064,7 +4064,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="320"/>
+      <c r="A62" s="324"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4076,7 +4076,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="320"/>
+      <c r="A63" s="324"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4088,7 +4088,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="320"/>
+      <c r="A64" s="324"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4100,7 +4100,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="320"/>
+      <c r="A65" s="324"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4112,7 +4112,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="320"/>
+      <c r="A66" s="324"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4124,7 +4124,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="320"/>
+      <c r="A67" s="324"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4136,7 +4136,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="320"/>
+      <c r="A68" s="324"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4148,7 +4148,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="320"/>
+      <c r="A69" s="324"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4160,7 +4160,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="320"/>
+      <c r="A70" s="324"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4172,7 +4172,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="320"/>
+      <c r="A71" s="324"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4184,7 +4184,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="320"/>
+      <c r="A72" s="324"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4196,7 +4196,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="320"/>
+      <c r="A73" s="324"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4208,7 +4208,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="320"/>
+      <c r="A74" s="324"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4220,7 +4220,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="320"/>
+      <c r="A75" s="324"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4232,7 +4232,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="320"/>
+      <c r="A76" s="324"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4244,7 +4244,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="320"/>
+      <c r="A77" s="324"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4256,7 +4256,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="320"/>
+      <c r="A78" s="324"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4268,7 +4268,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="320"/>
+      <c r="A79" s="324"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4280,7 +4280,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="320"/>
+      <c r="A80" s="324"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4292,7 +4292,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="320"/>
+      <c r="A81" s="324"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4304,7 +4304,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="320"/>
+      <c r="A82" s="324"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4316,7 +4316,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="320"/>
+      <c r="A83" s="324"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4373,33 +4373,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="319"/>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
+      <c r="A1" s="323"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="320"/>
-      <c r="B2" s="317" t="s">
+      <c r="A2" s="324"/>
+      <c r="B2" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="320"/>
-      <c r="B3" s="318" t="s">
+      <c r="A3" s="324"/>
+      <c r="B3" s="322" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="320"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4417,7 +4417,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="320"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="320"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="26"/>
       <c r="C6" s="265"/>
       <c r="D6" s="265"/>
@@ -4447,7 +4447,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="320"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="26" t="s">
         <v>73</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="320"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="26"/>
       <c r="C8" s="265"/>
       <c r="D8" s="265"/>
@@ -4477,7 +4477,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="320"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="26"/>
       <c r="C9" s="265"/>
       <c r="D9" s="265"/>
@@ -4489,7 +4489,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="320"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="26"/>
       <c r="C10" s="268"/>
       <c r="D10" s="268"/>
@@ -4501,7 +4501,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="320"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="26"/>
       <c r="C11" s="265"/>
       <c r="D11" s="265"/>
@@ -4513,7 +4513,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="320"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="26"/>
       <c r="C12" s="265"/>
       <c r="D12" s="265"/>
@@ -4525,7 +4525,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="320"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="26"/>
       <c r="C13" s="265"/>
       <c r="D13" s="265"/>
@@ -4537,7 +4537,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="320"/>
+      <c r="A14" s="324"/>
       <c r="B14" s="26"/>
       <c r="C14" s="265"/>
       <c r="D14" s="265"/>
@@ -4549,7 +4549,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="320"/>
+      <c r="A15" s="324"/>
       <c r="B15" s="26"/>
       <c r="C15" s="265"/>
       <c r="D15" s="265"/>
@@ -4561,7 +4561,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="320"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="26"/>
       <c r="C16" s="265"/>
       <c r="D16" s="265"/>
@@ -4573,7 +4573,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="320"/>
+      <c r="A17" s="324"/>
       <c r="B17" s="26"/>
       <c r="C17" s="265"/>
       <c r="D17" s="265"/>
@@ -4585,7 +4585,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="320"/>
+      <c r="A18" s="324"/>
       <c r="B18" s="26"/>
       <c r="C18" s="265"/>
       <c r="D18" s="265"/>
@@ -4597,7 +4597,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="320"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="26"/>
       <c r="C19" s="265"/>
       <c r="D19" s="268"/>
@@ -4609,7 +4609,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="320"/>
+      <c r="A20" s="324"/>
       <c r="B20" s="26"/>
       <c r="C20" s="265"/>
       <c r="D20" s="265"/>
@@ -4621,7 +4621,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="320"/>
+      <c r="A21" s="324"/>
       <c r="B21" s="26"/>
       <c r="C21" s="265"/>
       <c r="D21" s="265"/>
@@ -4633,7 +4633,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="320"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="26"/>
       <c r="C22" s="265"/>
       <c r="D22" s="265"/>
@@ -4645,7 +4645,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="320"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="26"/>
       <c r="C23" s="265"/>
       <c r="D23" s="265"/>
@@ -4657,7 +4657,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="320"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="26"/>
       <c r="C24" s="265"/>
       <c r="D24" s="265"/>
@@ -4669,7 +4669,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="320"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="26"/>
       <c r="C25" s="265"/>
       <c r="D25" s="265"/>
@@ -4681,7 +4681,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="320"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="26"/>
       <c r="C26" s="265"/>
       <c r="D26" s="265"/>
@@ -4693,7 +4693,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="320"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="26"/>
       <c r="C27" s="265"/>
       <c r="D27" s="265"/>
@@ -4705,7 +4705,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="320"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="26"/>
       <c r="C28" s="265"/>
       <c r="D28" s="265"/>
@@ -4717,7 +4717,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="320"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="26"/>
       <c r="C29" s="265"/>
       <c r="D29" s="265"/>
@@ -4729,7 +4729,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="320"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="26"/>
       <c r="C30" s="265"/>
       <c r="D30" s="265"/>
@@ -4741,7 +4741,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="320"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="26"/>
       <c r="C31" s="265"/>
       <c r="D31" s="265"/>
@@ -4753,7 +4753,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="320"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="26"/>
       <c r="C32" s="265"/>
       <c r="D32" s="265"/>
@@ -4765,7 +4765,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="320"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="26"/>
       <c r="C33" s="265"/>
       <c r="D33" s="268"/>
@@ -4777,7 +4777,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="320"/>
+      <c r="A34" s="324"/>
       <c r="B34" s="26"/>
       <c r="C34" s="265"/>
       <c r="D34" s="265"/>
@@ -4789,7 +4789,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="320"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="26"/>
       <c r="C35" s="265"/>
       <c r="D35" s="265"/>
@@ -4801,7 +4801,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="320"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="26"/>
       <c r="C36" s="265"/>
       <c r="D36" s="265"/>
@@ -4813,7 +4813,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="320"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="26"/>
       <c r="C37" s="265"/>
       <c r="D37" s="265"/>
@@ -4825,7 +4825,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="320"/>
+      <c r="A38" s="324"/>
       <c r="B38" s="26"/>
       <c r="C38" s="265"/>
       <c r="D38" s="265"/>
@@ -4837,7 +4837,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="320"/>
+      <c r="A39" s="324"/>
       <c r="B39" s="26"/>
       <c r="C39" s="265"/>
       <c r="D39" s="265"/>
@@ -4849,7 +4849,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="320"/>
+      <c r="A40" s="324"/>
       <c r="B40" s="26"/>
       <c r="C40" s="265"/>
       <c r="D40" s="265"/>
@@ -4861,7 +4861,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="320"/>
+      <c r="A41" s="324"/>
       <c r="B41" s="26"/>
       <c r="C41" s="265"/>
       <c r="D41" s="265"/>
@@ -4873,7 +4873,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="320"/>
+      <c r="A42" s="324"/>
       <c r="B42" s="26"/>
       <c r="C42" s="265"/>
       <c r="D42" s="265"/>
@@ -4885,7 +4885,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="320"/>
+      <c r="A43" s="324"/>
       <c r="B43" s="26"/>
       <c r="C43" s="265"/>
       <c r="D43" s="265"/>
@@ -4897,7 +4897,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="320"/>
+      <c r="A44" s="324"/>
       <c r="B44" s="26"/>
       <c r="C44" s="265"/>
       <c r="D44" s="265"/>
@@ -4909,7 +4909,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="320"/>
+      <c r="A45" s="324"/>
       <c r="B45" s="26"/>
       <c r="C45" s="265"/>
       <c r="D45" s="265"/>
@@ -4921,7 +4921,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="320"/>
+      <c r="A46" s="324"/>
       <c r="B46" s="26"/>
       <c r="C46" s="265"/>
       <c r="D46" s="265"/>
@@ -4933,7 +4933,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="320"/>
+      <c r="A47" s="324"/>
       <c r="B47" s="26"/>
       <c r="C47" s="265"/>
       <c r="D47" s="265"/>
@@ -4945,7 +4945,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="320"/>
+      <c r="A48" s="324"/>
       <c r="B48" s="26"/>
       <c r="C48" s="265"/>
       <c r="D48" s="265"/>
@@ -4957,7 +4957,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="320"/>
+      <c r="A49" s="324"/>
       <c r="B49" s="26"/>
       <c r="C49" s="265"/>
       <c r="D49" s="265"/>
@@ -4969,7 +4969,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="320"/>
+      <c r="A50" s="324"/>
       <c r="B50" s="26"/>
       <c r="C50" s="265"/>
       <c r="D50" s="265"/>
@@ -4981,7 +4981,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="320"/>
+      <c r="A51" s="324"/>
       <c r="B51" s="26"/>
       <c r="C51" s="265"/>
       <c r="D51" s="265"/>
@@ -4993,7 +4993,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="320"/>
+      <c r="A52" s="324"/>
       <c r="B52" s="26"/>
       <c r="C52" s="265"/>
       <c r="D52" s="265"/>
@@ -5005,7 +5005,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="320"/>
+      <c r="A53" s="324"/>
       <c r="B53" s="26"/>
       <c r="C53" s="265"/>
       <c r="D53" s="265"/>
@@ -5017,7 +5017,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="320"/>
+      <c r="A54" s="324"/>
       <c r="B54" s="26"/>
       <c r="C54" s="265"/>
       <c r="D54" s="265"/>
@@ -5029,7 +5029,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="320"/>
+      <c r="A55" s="324"/>
       <c r="B55" s="26"/>
       <c r="C55" s="265"/>
       <c r="D55" s="265"/>
@@ -5040,7 +5040,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="320"/>
+      <c r="A56" s="324"/>
       <c r="B56" s="26"/>
       <c r="C56" s="265"/>
       <c r="D56" s="265"/>
@@ -5051,7 +5051,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="320"/>
+      <c r="A57" s="324"/>
       <c r="B57" s="26"/>
       <c r="C57" s="265"/>
       <c r="D57" s="265"/>
@@ -5062,7 +5062,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="320"/>
+      <c r="A58" s="324"/>
       <c r="B58" s="26"/>
       <c r="C58" s="265"/>
       <c r="D58" s="265"/>
@@ -5073,7 +5073,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="320"/>
+      <c r="A59" s="324"/>
       <c r="B59" s="26"/>
       <c r="C59" s="265"/>
       <c r="D59" s="265"/>
@@ -5084,7 +5084,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="320"/>
+      <c r="A60" s="324"/>
       <c r="B60" s="26"/>
       <c r="C60" s="265"/>
       <c r="D60" s="265"/>
@@ -5095,7 +5095,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="320"/>
+      <c r="A61" s="324"/>
       <c r="B61" s="26"/>
       <c r="C61" s="265"/>
       <c r="D61" s="265"/>
@@ -5106,7 +5106,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="320"/>
+      <c r="A62" s="324"/>
       <c r="B62" s="26"/>
       <c r="C62" s="265"/>
       <c r="D62" s="265"/>
@@ -5117,7 +5117,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="320"/>
+      <c r="A63" s="324"/>
       <c r="B63" s="26"/>
       <c r="C63" s="265"/>
       <c r="D63" s="265"/>
@@ -5128,7 +5128,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="320"/>
+      <c r="A64" s="324"/>
       <c r="B64" s="26"/>
       <c r="C64" s="265"/>
       <c r="D64" s="265"/>
@@ -5139,7 +5139,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="320"/>
+      <c r="A65" s="324"/>
       <c r="B65" s="26"/>
       <c r="C65" s="265"/>
       <c r="D65" s="265"/>
@@ -5150,7 +5150,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="320"/>
+      <c r="A66" s="324"/>
       <c r="B66" s="26"/>
       <c r="C66" s="265"/>
       <c r="D66" s="265"/>
@@ -5161,7 +5161,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="320"/>
+      <c r="A67" s="324"/>
       <c r="B67" s="26"/>
       <c r="C67" s="265"/>
       <c r="D67" s="265"/>
@@ -5172,7 +5172,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="320"/>
+      <c r="A68" s="324"/>
       <c r="B68" s="26"/>
       <c r="C68" s="265"/>
       <c r="D68" s="265"/>
@@ -5183,7 +5183,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="320"/>
+      <c r="A69" s="324"/>
       <c r="B69" s="26"/>
       <c r="C69" s="265"/>
       <c r="D69" s="265"/>
@@ -5194,7 +5194,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="320"/>
+      <c r="A70" s="324"/>
       <c r="B70" s="26"/>
       <c r="C70" s="265"/>
       <c r="D70" s="265"/>
@@ -5205,7 +5205,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="320"/>
+      <c r="A71" s="324"/>
       <c r="B71" s="26"/>
       <c r="C71" s="265"/>
       <c r="D71" s="265"/>
@@ -5216,7 +5216,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="320"/>
+      <c r="A72" s="324"/>
       <c r="B72" s="26"/>
       <c r="C72" s="265"/>
       <c r="D72" s="265"/>
@@ -5227,7 +5227,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="320"/>
+      <c r="A73" s="324"/>
       <c r="B73" s="26"/>
       <c r="C73" s="265"/>
       <c r="D73" s="265"/>
@@ -5238,7 +5238,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="320"/>
+      <c r="A74" s="324"/>
       <c r="B74" s="26"/>
       <c r="C74" s="265"/>
       <c r="D74" s="265"/>
@@ -5249,7 +5249,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="320"/>
+      <c r="A75" s="324"/>
       <c r="B75" s="26"/>
       <c r="C75" s="265"/>
       <c r="D75" s="265"/>
@@ -5260,7 +5260,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="320"/>
+      <c r="A76" s="324"/>
       <c r="B76" s="26"/>
       <c r="C76" s="265"/>
       <c r="D76" s="265"/>
@@ -5271,7 +5271,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="320"/>
+      <c r="A77" s="324"/>
       <c r="B77" s="26"/>
       <c r="C77" s="265"/>
       <c r="D77" s="265"/>
@@ -5282,7 +5282,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="320"/>
+      <c r="A78" s="324"/>
       <c r="B78" s="26"/>
       <c r="C78" s="265"/>
       <c r="D78" s="265"/>
@@ -5293,7 +5293,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="320"/>
+      <c r="A79" s="324"/>
       <c r="B79" s="26"/>
       <c r="C79" s="265"/>
       <c r="D79" s="265"/>
@@ -5305,7 +5305,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="320"/>
+      <c r="A80" s="324"/>
       <c r="B80" s="26"/>
       <c r="C80" s="265"/>
       <c r="D80" s="265"/>
@@ -5317,7 +5317,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="320"/>
+      <c r="A81" s="324"/>
       <c r="B81" s="26"/>
       <c r="C81" s="265"/>
       <c r="D81" s="265"/>
@@ -5329,7 +5329,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="320"/>
+      <c r="A82" s="324"/>
       <c r="B82" s="26"/>
       <c r="C82" s="265"/>
       <c r="D82" s="265"/>
@@ -5341,7 +5341,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="320"/>
+      <c r="A83" s="324"/>
       <c r="B83" s="31"/>
       <c r="C83" s="267">
         <f>SUM(C5:C72)</f>
@@ -5396,67 +5396,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="329" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="325"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
+      <c r="H1" s="329"/>
+      <c r="I1" s="329"/>
+      <c r="J1" s="329"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
     </row>
     <row r="2" spans="1:24" s="68" customFormat="1" ht="18">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="330" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="330"/>
+      <c r="I2" s="330"/>
+      <c r="J2" s="330"/>
+      <c r="K2" s="330"/>
+      <c r="L2" s="330"/>
+      <c r="M2" s="330"/>
+      <c r="N2" s="330"/>
+      <c r="O2" s="330"/>
+      <c r="P2" s="330"/>
+      <c r="Q2" s="330"/>
     </row>
     <row r="3" spans="1:24" s="69" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="331" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
-      <c r="N3" s="328"/>
-      <c r="O3" s="328"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="329"/>
+      <c r="B3" s="332"/>
+      <c r="C3" s="332"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="332"/>
+      <c r="I3" s="332"/>
+      <c r="J3" s="332"/>
+      <c r="K3" s="332"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="333"/>
       <c r="S3" s="52"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -5465,52 +5465,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="334" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="332" t="s">
+      <c r="B4" s="336" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="321" t="s">
+      <c r="C4" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="321" t="s">
+      <c r="D4" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="325" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="321" t="s">
+      <c r="F4" s="325" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="321" t="s">
+      <c r="G4" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="321" t="s">
+      <c r="H4" s="325" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="321" t="s">
+      <c r="I4" s="325" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="321" t="s">
+      <c r="J4" s="325" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="321" t="s">
+      <c r="K4" s="325" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="321" t="s">
+      <c r="L4" s="325" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="321" t="s">
+      <c r="M4" s="325" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="321" t="s">
+      <c r="N4" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="323" t="s">
+      <c r="O4" s="327" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="334" t="s">
+      <c r="P4" s="338" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="131" t="s">
@@ -5523,22 +5523,22 @@
       <c r="W4" s="72"/>
     </row>
     <row r="5" spans="1:24" s="70" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="331"/>
-      <c r="B5" s="333"/>
-      <c r="C5" s="322"/>
-      <c r="D5" s="322"/>
-      <c r="E5" s="322"/>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="322"/>
-      <c r="K5" s="322"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="322"/>
-      <c r="N5" s="322"/>
-      <c r="O5" s="324"/>
-      <c r="P5" s="335"/>
+      <c r="A5" s="335"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="326"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="326"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="326"/>
+      <c r="N5" s="326"/>
+      <c r="O5" s="328"/>
+      <c r="P5" s="339"/>
       <c r="Q5" s="132" t="s">
         <v>42</v>
       </c>
@@ -8439,11 +8439,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -8458,6 +8453,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -8498,14 +8498,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="344" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="342"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="346"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="148"/>
@@ -8599,14 +8599,14 @@
       <c r="CS1" s="143"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="347" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="345"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="349"/>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="148"/>
@@ -8700,14 +8700,14 @@
       <c r="CS2" s="143"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="346" t="s">
+      <c r="A3" s="350" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="348"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="352"/>
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="148"/>
@@ -11994,12 +11994,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="138"/>
-      <c r="B35" s="338" t="s">
+      <c r="B35" s="342" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="338"/>
-      <c r="D35" s="338"/>
-      <c r="E35" s="338"/>
+      <c r="C35" s="342"/>
+      <c r="D35" s="342"/>
+      <c r="E35" s="342"/>
       <c r="F35" s="139"/>
       <c r="G35" s="144"/>
       <c r="H35" s="144"/>
@@ -12810,10 +12810,10 @@
       <c r="D43" s="214"/>
       <c r="E43" s="181"/>
       <c r="F43" s="139"/>
-      <c r="G43" s="339"/>
-      <c r="H43" s="339"/>
-      <c r="I43" s="339"/>
-      <c r="J43" s="339"/>
+      <c r="G43" s="343"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
       <c r="K43" s="63"/>
       <c r="L43" s="148"/>
       <c r="M43" s="63"/>
@@ -20597,11 +20597,11 @@
       <c r="CS118" s="143"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="336" t="s">
+      <c r="A119" s="340" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="337"/>
-      <c r="C119" s="349"/>
+      <c r="B119" s="341"/>
+      <c r="C119" s="353"/>
       <c r="D119" s="220">
         <f>SUM(D37:D118)</f>
         <v>389660</v>
@@ -20804,11 +20804,11 @@
       <c r="CS120" s="143"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="336" t="s">
+      <c r="A121" s="340" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="337"/>
-      <c r="C121" s="337"/>
+      <c r="B121" s="341"/>
+      <c r="C121" s="341"/>
       <c r="D121" s="220">
         <f>D119+M121</f>
         <v>389660</v>
@@ -32042,8 +32042,8 @@
   </sheetPr>
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32059,35 +32059,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="354" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="352"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="356"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="21.75">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="363" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="361"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="365"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="353" t="s">
+      <c r="A3" s="357" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="355"/>
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="359"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -32102,13 +32102,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="366" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="363"/>
-      <c r="C4" s="363"/>
-      <c r="D4" s="363"/>
-      <c r="E4" s="364"/>
+      <c r="B4" s="367"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="367"/>
+      <c r="E4" s="368"/>
       <c r="F4" s="5"/>
       <c r="G4" s="45"/>
       <c r="H4" s="7"/>
@@ -32137,9 +32137,9 @@
         <v>7156950</v>
       </c>
       <c r="F5" s="36"/>
-      <c r="G5" s="366"/>
-      <c r="H5" s="367"/>
-      <c r="I5" s="368"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="320"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -32283,7 +32283,7 @@
       <c r="D11" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="365">
+      <c r="E11" s="317">
         <v>86950</v>
       </c>
       <c r="F11" s="7"/>
@@ -32421,13 +32421,13 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A17" s="356" t="s">
+      <c r="A17" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="357"/>
-      <c r="C17" s="357"/>
-      <c r="D17" s="357"/>
-      <c r="E17" s="358"/>
+      <c r="B17" s="361"/>
+      <c r="C17" s="361"/>
+      <c r="D17" s="361"/>
+      <c r="E17" s="362"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
